--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C7D244-AC8A-47CD-928A-93A36546873F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67267AA7-A960-4E49-AAF1-3692AB4CDD8D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="1" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
   <sheets>
     <sheet name="273929" sheetId="2" r:id="rId1"/>
@@ -36,8 +36,108 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>С.С. Уколов</author>
+  </authors>
+  <commentList>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{C4548742-7A12-4832-ACE8-92A86CA592C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Неверен 1 IP, опечатка</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>С.С. Уколов</author>
+  </authors>
+  <commentList>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{F8D4EFFC-B078-4504-B1E4-DC66729E414D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP (71)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{C1A1C5A4-1854-491D-ACF6-287CD1BBD2C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+1) Неверный IP (28)
+2) Плохо документировано
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="216">
   <si>
     <t/>
   </si>
@@ -771,7 +871,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,6 +920,21 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -856,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,6 +991,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1190,14 +1311,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664D9B29-5F1C-4AA1-816F-B78A023C6A7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664D9B29-5F1C-4AA1-816F-B78A023C6A7E}">
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1326,8 @@
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3.7109375" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.140625" bestFit="1" customWidth="1"/>
@@ -17620,8 +17742,27 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:16384" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:16384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5" spans="1:16384" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -17634,24 +17775,26 @@
       <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="E5" s="9">
+        <v>43403</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
     </row>
     <row r="6" spans="1:16384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -17734,8 +17877,8 @@
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>0</v>
+      <c r="E7" s="2">
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>0</v>
@@ -18074,8 +18217,8 @@
       <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>0</v>
+      <c r="E12" s="2">
+        <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>0</v>
@@ -18278,8 +18421,8 @@
       <c r="D15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>0</v>
+      <c r="E15" s="2">
+        <v>5</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>0</v>
@@ -18414,8 +18557,8 @@
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>0</v>
+      <c r="E17" s="2">
+        <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>0</v>
@@ -18482,8 +18625,8 @@
       <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>0</v>
+      <c r="E18" s="2">
+        <v>5</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>0</v>
@@ -18550,8 +18693,8 @@
       <c r="D19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>0</v>
+      <c r="E19" s="2">
+        <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>0</v>
@@ -18686,8 +18829,8 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>0</v>
+      <c r="E21" s="2">
+        <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>0</v>
@@ -18754,8 +18897,8 @@
       <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>0</v>
+      <c r="E22" s="2">
+        <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>0</v>
@@ -18822,8 +18965,8 @@
       <c r="D23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>0</v>
+      <c r="E23" s="2">
+        <v>4</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>0</v>
@@ -18890,8 +19033,8 @@
       <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>0</v>
+      <c r="E24" s="2">
+        <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>0</v>
@@ -19131,18 +19274,19 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF063BD-4A8B-42A1-8C4D-A192B7A83FAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF063BD-4A8B-42A1-8C4D-A192B7A83FAC}">
   <sheetPr codeName="Лист2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19183,7 +19327,7 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -19196,7 +19340,9 @@
       <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="9">
+        <v>43403</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -19228,8 +19374,8 @@
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>0</v>
+      <c r="E6" s="2">
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>0</v>
@@ -19296,8 +19442,8 @@
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>0</v>
+      <c r="E7" s="2">
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>0</v>
@@ -19364,8 +19510,8 @@
       <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
+      <c r="E8" s="2">
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>0</v>
@@ -19500,8 +19646,8 @@
       <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>0</v>
+      <c r="E10" s="2">
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>0</v>
@@ -19772,8 +19918,8 @@
       <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>0</v>
+      <c r="E14" s="2">
+        <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>0</v>
@@ -19908,8 +20054,8 @@
       <c r="D16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>0</v>
+      <c r="E16" s="2">
+        <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>0</v>
@@ -20248,8 +20394,8 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>0</v>
+      <c r="E21" s="2">
+        <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>0</v>
@@ -20316,8 +20462,8 @@
       <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>0</v>
+      <c r="E22" s="2">
+        <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>0</v>
@@ -20520,8 +20666,8 @@
       <c r="D25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>0</v>
+      <c r="E25" s="2">
+        <v>5</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>0</v>
@@ -20588,8 +20734,8 @@
       <c r="D26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>0</v>
+      <c r="E26" s="2">
+        <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>0</v>
@@ -20656,8 +20802,8 @@
       <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>0</v>
+      <c r="E27" s="2">
+        <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>0</v>
@@ -20792,7 +20938,9 @@
       <c r="D29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -20845,6 +20993,7 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="91" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20855,7 +21004,7 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67267AA7-A960-4E49-AAF1-3692AB4CDD8D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D842E9-98FF-4878-B4A1-7DFEEED8C898}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="1" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
   <sheets>
     <sheet name="273929" sheetId="2" r:id="rId1"/>
@@ -42,6 +42,30 @@
     <author>С.С. Уколов</author>
   </authors>
   <commentList>
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{CCCE3613-232D-4A8B-8698-2CE21EED9572}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DHCP начат, но не настроен совсем</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E23" authorId="0" shapeId="0" xr:uid="{C4548742-7A12-4832-ACE8-92A86CA592C6}">
       <text>
         <r>
@@ -136,8 +160,44 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>С.С. Уколов</author>
+  </authors>
+  <commentList>
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{03BBAD96-5400-4B70-90F1-46AD0ABB199D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Попытка сдачи экстерном
+Не разобрался
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="217">
   <si>
     <t/>
   </si>
@@ -866,12 +926,15 @@
   <si>
     <t>192.168.120.*</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,6 +998,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -986,17 +1062,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,7 +1394,7 @@
   <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17723,46 +17799,46 @@
       <c r="XFD1" s="5"/>
     </row>
     <row r="2" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:16384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:16384" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16384" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -17775,26 +17851,28 @@
       <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>43403</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+      <c r="F5" s="7">
+        <v>43410</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:16384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -17945,11 +18023,11 @@
       <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>0</v>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>0</v>
@@ -18220,8 +18298,8 @@
       <c r="E12" s="2">
         <v>5</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>0</v>
+      <c r="F12" s="2">
+        <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>0</v>
@@ -18424,8 +18502,8 @@
       <c r="E15" s="2">
         <v>5</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>0</v>
+      <c r="F15" s="2">
+        <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>0</v>
@@ -18560,8 +18638,8 @@
       <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>0</v>
+      <c r="F17" s="2">
+        <v>3</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>0</v>
@@ -18696,8 +18774,8 @@
       <c r="E19" s="2">
         <v>5</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>0</v>
+      <c r="F19" s="2">
+        <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>0</v>
@@ -18764,9 +18842,7 @@
       <c r="E20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
         <v>0</v>
       </c>
@@ -18832,8 +18908,8 @@
       <c r="E21" s="2">
         <v>5</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>0</v>
+      <c r="F21" s="2">
+        <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>0</v>
@@ -18900,8 +18976,8 @@
       <c r="E22" s="2">
         <v>5</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>0</v>
+      <c r="F22" s="2">
+        <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>0</v>
@@ -18968,8 +19044,8 @@
       <c r="E23" s="2">
         <v>4</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>0</v>
+      <c r="F23" s="2">
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>0</v>
@@ -19036,8 +19112,8 @@
       <c r="E24" s="2">
         <v>5</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>0</v>
+      <c r="F24" s="2">
+        <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>0</v>
@@ -19285,7 +19361,7 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -19307,24 +19383,24 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
@@ -19340,7 +19416,7 @@
       <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>43403</v>
       </c>
       <c r="F5" s="3"/>
@@ -20998,14 +21074,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17BCC30-3557-41B9-A581-EAB23C46AAED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17BCC30-3557-41B9-A581-EAB23C46AAED}">
   <sheetPr codeName="Лист3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21025,27 +21101,27 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -21056,8 +21132,12 @@
       <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="7">
+        <v>43403</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43410</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -21224,11 +21304,11 @@
       <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>0</v>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>0</v>
@@ -22111,14 +22191,14 @@
       <c r="E21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>0</v>
+      <c r="F21" s="2">
+        <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -22315,8 +22395,8 @@
       <c r="E24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>0</v>
+      <c r="F24" s="2">
+        <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>0</v>
@@ -22650,5 +22730,6 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="92" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D842E9-98FF-4878-B4A1-7DFEEED8C898}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2304A140-2406-4632-8109-776B2A53D878}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
@@ -128,6 +128,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{A4E73D5D-223F-4A33-87F8-08020E8B341C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Глупо чужой IP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{EBD47501-D20B-443C-ACBC-8EA915D9A73F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">С.С. Уколов:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Не удалось настроить IP &amp; DHCP
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E27" authorId="0" shapeId="0" xr:uid="{C1A1C5A4-1854-491D-ACF6-287CD1BBD2C2}">
       <text>
         <r>
@@ -192,12 +242,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{EDE0AB72-0393-43FB-B884-B38D58C2EC24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужие и разные (!) IP-адреса</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="217">
   <si>
     <t/>
   </si>
@@ -1394,7 +1468,7 @@
   <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18363,8 +18437,8 @@
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>0</v>
+      <c r="E13" s="2">
+        <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>0</v>
@@ -19361,8 +19435,8 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19403,7 +19477,7 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:22" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -19419,23 +19493,25 @@
       <c r="E5" s="7">
         <v>43403</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="F5" s="7">
+        <v>43410</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -19521,8 +19597,8 @@
       <c r="E7" s="2">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>0</v>
+      <c r="F7" s="2">
+        <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>0</v>
@@ -19589,8 +19665,8 @@
       <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>0</v>
+      <c r="F8" s="2">
+        <v>2</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>0</v>
@@ -19725,8 +19801,8 @@
       <c r="E10" s="2">
         <v>5</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>0</v>
+      <c r="F10" s="2">
+        <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>0</v>
@@ -19997,8 +20073,8 @@
       <c r="E14" s="2">
         <v>5</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>0</v>
+      <c r="F14" s="2">
+        <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>0</v>
@@ -20133,8 +20209,8 @@
       <c r="E16" s="2">
         <v>5</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>0</v>
+      <c r="F16" s="2">
+        <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>0</v>
@@ -20266,11 +20342,11 @@
       <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>0</v>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>0</v>
@@ -20473,8 +20549,8 @@
       <c r="E21" s="2">
         <v>5</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>0</v>
+      <c r="F21" s="2">
+        <v>3</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>0</v>
@@ -20541,8 +20617,8 @@
       <c r="E22" s="2">
         <v>5</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>0</v>
+      <c r="F22" s="2">
+        <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>0</v>
@@ -20745,8 +20821,8 @@
       <c r="E25" s="2">
         <v>5</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>0</v>
+      <c r="F25" s="2">
+        <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>0</v>
@@ -20813,8 +20889,8 @@
       <c r="E26" s="2">
         <v>5</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>0</v>
+      <c r="F26" s="2">
+        <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>0</v>
@@ -21081,7 +21157,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21138,22 +21214,22 @@
       <c r="F5" s="7">
         <v>43410</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -21644,8 +21720,8 @@
       <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>0</v>
+      <c r="E13" s="2">
+        <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>0</v>
@@ -22188,8 +22264,8 @@
       <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>0</v>
+      <c r="E21" s="2">
+        <v>5</v>
       </c>
       <c r="F21" s="2">
         <v>5</v>
@@ -22324,8 +22400,8 @@
       <c r="D23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>0</v>
+      <c r="E23" s="2">
+        <v>3</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>0</v>
@@ -22392,8 +22468,8 @@
       <c r="D24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>0</v>
+      <c r="E24" s="2">
+        <v>5</v>
       </c>
       <c r="F24" s="2">
         <v>5</v>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2304A140-2406-4632-8109-776B2A53D878}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3200C1D9-E356-4D8B-B3C8-E94D09A9BC3E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
@@ -152,32 +152,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0" shapeId="0" xr:uid="{EBD47501-D20B-443C-ACBC-8EA915D9A73F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">С.С. Уколов:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">Не удалось настроить IP &amp; DHCP
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E27" authorId="0" shapeId="0" xr:uid="{C1A1C5A4-1854-491D-ACF6-287CD1BBD2C2}">
       <text>
         <r>
@@ -271,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="217">
   <si>
     <t/>
   </si>
@@ -19436,7 +19410,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20550,7 +20524,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>0</v>
@@ -21156,8 +21130,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22270,8 +22244,8 @@
       <c r="F21" s="2">
         <v>5</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>0</v>
+      <c r="G21" s="2">
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>216</v>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3200C1D9-E356-4D8B-B3C8-E94D09A9BC3E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EF4438-909F-4C96-9E0F-05B3CFDA9D97}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
   <sheets>
     <sheet name="273929" sheetId="2" r:id="rId1"/>
@@ -42,30 +42,6 @@
     <author>С.С. Уколов</author>
   </authors>
   <commentList>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{CCCE3613-232D-4A8B-8698-2CE21EED9572}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>С.С. Уколов:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-DHCP начат, но не настроен совсем</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E23" authorId="0" shapeId="0" xr:uid="{C4548742-7A12-4832-ACE8-92A86CA592C6}">
       <text>
         <r>
@@ -210,9 +186,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Попытка сдачи экстерном
-Не разобрался
-</t>
+Чужие IP</t>
         </r>
       </text>
     </comment>
@@ -245,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="218">
   <si>
     <t/>
   </si>
@@ -975,7 +949,10 @@
     <t>192.168.120.*</t>
   </si>
   <si>
-    <t>-</t>
+    <t>+</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1441,8 +1418,8 @@
   </sheetPr>
   <dimension ref="A1:XFD43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17905,7 +17882,9 @@
       <c r="F5" s="7">
         <v>43410</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>43417</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -18077,8 +18056,8 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>0</v>
+      <c r="G8" s="2">
+        <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>0</v>
@@ -18349,8 +18328,8 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>0</v>
+      <c r="G12" s="2">
+        <v>5</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>0</v>
@@ -18414,8 +18393,8 @@
       <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>0</v>
+      <c r="F13" s="2">
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>0</v>
@@ -18553,8 +18532,8 @@
       <c r="F15" s="2">
         <v>5</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>0</v>
+      <c r="G15" s="2">
+        <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>0</v>
@@ -18687,10 +18666,10 @@
         <v>5</v>
       </c>
       <c r="F17" s="2">
-        <v>3</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>0</v>
@@ -18757,8 +18736,8 @@
       <c r="F18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>0</v>
+      <c r="G18" s="2">
+        <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>0</v>
@@ -18825,8 +18804,8 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>0</v>
+      <c r="G19" s="2">
+        <v>5</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>0</v>
@@ -18959,8 +18938,8 @@
       <c r="F21" s="2">
         <v>5</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>0</v>
+      <c r="G21" s="2">
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>0</v>
@@ -19027,8 +19006,8 @@
       <c r="F22" s="2">
         <v>5</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>0</v>
+      <c r="G22" s="2">
+        <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>0</v>
@@ -19095,8 +19074,8 @@
       <c r="F23" s="2">
         <v>5</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>0</v>
+      <c r="G23" s="2">
+        <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>0</v>
@@ -19163,8 +19142,8 @@
       <c r="F24" s="2">
         <v>5</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>0</v>
+      <c r="G24" s="2">
+        <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>0</v>
@@ -19293,14 +19272,14 @@
       <c r="D26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>0</v>
+      <c r="E26" s="2">
+        <v>5</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>0</v>
+      <c r="G26" s="2">
+        <v>5</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>0</v>
@@ -19410,7 +19389,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19470,7 +19449,9 @@
       <c r="F5" s="7">
         <v>43410</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>43417</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -19506,8 +19487,8 @@
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>0</v>
+      <c r="G6" s="2">
+        <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>0</v>
@@ -19575,7 +19556,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>0</v>
@@ -20050,8 +20031,8 @@
       <c r="F14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
+      <c r="G14" s="2">
+        <v>5</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>0</v>
@@ -20118,9 +20099,7 @@
       <c r="F15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
         <v>0</v>
       </c>
@@ -20186,8 +20165,8 @@
       <c r="F16" s="2">
         <v>5</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>0</v>
+      <c r="G16" s="2">
+        <v>5</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>0</v>
@@ -20322,8 +20301,8 @@
       <c r="F18" s="2">
         <v>5</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>0</v>
+      <c r="G18" s="2">
+        <v>5</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>0</v>
@@ -20526,8 +20505,8 @@
       <c r="F21" s="2">
         <v>5</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>0</v>
+      <c r="G21" s="2">
+        <v>5</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>0</v>
@@ -20594,8 +20573,8 @@
       <c r="F22" s="2">
         <v>5</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>0</v>
+      <c r="G22" s="2">
+        <v>5</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>0</v>
@@ -20798,8 +20777,8 @@
       <c r="F25" s="2">
         <v>5</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>0</v>
+      <c r="G25" s="2">
+        <v>5</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>0</v>
@@ -20866,8 +20845,8 @@
       <c r="F26" s="2">
         <v>5</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>0</v>
+      <c r="G26" s="2">
+        <v>5</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>0</v>
@@ -20932,7 +20911,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>0</v>
@@ -21130,8 +21109,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21188,7 +21167,9 @@
       <c r="F5" s="7">
         <v>43410</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>43417</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -21360,8 +21341,8 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>0</v>
+      <c r="G8" s="2">
+        <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>0</v>
@@ -21697,8 +21678,8 @@
       <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>0</v>
+      <c r="F13" s="2">
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>0</v>
@@ -21836,8 +21817,8 @@
       <c r="F15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>0</v>
+      <c r="G15" s="2">
+        <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>0</v>
@@ -22247,8 +22228,8 @@
       <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>216</v>
+      <c r="H21" s="2">
+        <v>5</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -22377,11 +22358,11 @@
       <c r="E23" s="2">
         <v>3</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>0</v>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>0</v>
@@ -22449,7 +22430,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>0</v>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EF4438-909F-4C96-9E0F-05B3CFDA9D97}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521CBF5D-BA4C-474C-8780-67279E92069A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="1" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
   <sheets>
     <sheet name="273929" sheetId="2" r:id="rId1"/>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="218">
   <si>
     <t/>
   </si>
@@ -1418,8 +1418,8 @@
   </sheetPr>
   <dimension ref="A1:XFD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18396,8 +18396,8 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>0</v>
+      <c r="G13" s="2">
+        <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>0</v>
@@ -19388,8 +19388,8 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20910,8 +20910,8 @@
       <c r="E27" s="2">
         <v>4</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>216</v>
+      <c r="F27" s="2">
+        <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>0</v>
@@ -21110,7 +21110,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22232,10 +22232,10 @@
         <v>5</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>0</v>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521CBF5D-BA4C-474C-8780-67279E92069A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54205716-B4C4-4D1E-9014-A12CD4754B53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="1" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
   <sheets>
     <sheet name="273929" sheetId="2" r:id="rId1"/>
@@ -42,6 +42,80 @@
     <author>С.С. Уколов</author>
   </authors>
   <commentList>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{5C0FBF45-5A6B-42A1-8D19-1765F45CB669}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не везде включён DHCP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{33CA32B4-2DF6-47FA-BDA5-9E2B2DD9465A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не везде включён DHCP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{B010D85C-288F-4D57-B454-91ECE8917473}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Повторный IP
+Неаккуратный развод портов
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E23" authorId="0" shapeId="0" xr:uid="{C4548742-7A12-4832-ACE8-92A86CA592C6}">
       <text>
         <r>
@@ -128,6 +202,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{85894330-6C80-457B-9BD8-66AF7D67C7F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не везде включён DHCP</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E27" authorId="0" shapeId="0" xr:uid="{C1A1C5A4-1854-491D-ACF6-287CD1BBD2C2}">
       <text>
         <r>
@@ -166,6 +264,31 @@
     <author>С.С. Уколов</author>
   </authors>
   <commentList>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{124A514E-A637-4C1E-BC96-AD101E356488}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не везде включён DHCP
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H21" authorId="0" shapeId="0" xr:uid="{03BBAD96-5400-4B70-90F1-46AD0ABB199D}">
       <text>
         <r>
@@ -214,12 +337,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{503CB5C0-C787-4635-A6E8-6E1D256D4A32}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{E6B374B0-D564-4684-AD8A-A839CF12FB49}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="218">
   <si>
     <t/>
   </si>
@@ -1419,7 +1590,7 @@
   <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17885,7 +18056,9 @@
       <c r="G5" s="7">
         <v>43417</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>43424</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -18059,8 +18232,8 @@
       <c r="G8" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>0</v>
+      <c r="H8" s="2">
+        <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>0</v>
@@ -18331,8 +18504,8 @@
       <c r="G12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>0</v>
+      <c r="H12" s="2">
+        <v>5</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>0</v>
@@ -18535,8 +18708,8 @@
       <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>0</v>
+      <c r="H15" s="2">
+        <v>5</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>0</v>
@@ -18671,8 +18844,8 @@
       <c r="G17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>0</v>
+      <c r="H17" s="2">
+        <v>5</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>0</v>
@@ -18739,8 +18912,8 @@
       <c r="G18" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>0</v>
+      <c r="H18" s="2">
+        <v>4</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>0</v>
@@ -18807,8 +18980,8 @@
       <c r="G19" s="2">
         <v>5</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>0</v>
+      <c r="H19" s="2">
+        <v>5</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>0</v>
@@ -18941,8 +19114,8 @@
       <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>0</v>
+      <c r="H21" s="2">
+        <v>3</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -19009,8 +19182,8 @@
       <c r="G22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>0</v>
+      <c r="H22" s="2">
+        <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>0</v>
@@ -19145,8 +19318,8 @@
       <c r="G24" s="2">
         <v>5</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>0</v>
+      <c r="H24" s="2">
+        <v>5</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>0</v>
@@ -19388,8 +19561,8 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19452,7 +19625,9 @@
       <c r="G5" s="7">
         <v>43417</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>43424</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -20034,8 +20209,8 @@
       <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>0</v>
+      <c r="H14" s="2">
+        <v>5</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>0</v>
@@ -20100,9 +20275,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
         <v>0</v>
       </c>
@@ -20168,8 +20341,8 @@
       <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>0</v>
+      <c r="H16" s="2">
+        <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>0</v>
@@ -20227,17 +20400,17 @@
       <c r="D17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>0</v>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>0</v>
@@ -20304,8 +20477,8 @@
       <c r="G18" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>0</v>
+      <c r="H18" s="2">
+        <v>5</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>0</v>
@@ -20508,8 +20681,8 @@
       <c r="G21" s="2">
         <v>5</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>0</v>
+      <c r="H21" s="2">
+        <v>5</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
@@ -20576,8 +20749,8 @@
       <c r="G22" s="2">
         <v>5</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>0</v>
+      <c r="H22" s="2">
+        <v>5</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>0</v>
@@ -20780,8 +20953,8 @@
       <c r="G25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>0</v>
+      <c r="H25" s="2">
+        <v>5</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>0</v>
@@ -20848,8 +21021,8 @@
       <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>0</v>
+      <c r="H26" s="2">
+        <v>5</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>0</v>
@@ -20913,11 +21086,11 @@
       <c r="F27" s="2">
         <v>5</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>0</v>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>0</v>
@@ -21048,7 +21221,9 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>5</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
@@ -21109,7 +21284,7 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -21170,7 +21345,9 @@
       <c r="G5" s="7">
         <v>43417</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>43424</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -21344,8 +21521,8 @@
       <c r="G8" s="2">
         <v>5</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>0</v>
+      <c r="H8" s="2">
+        <v>4</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>0</v>
@@ -21681,8 +21858,8 @@
       <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>0</v>
+      <c r="G13" s="2">
+        <v>5</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>0</v>
@@ -22163,9 +22340,7 @@
       <c r="H20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
         <v>0</v>
       </c>
@@ -22231,11 +22406,11 @@
       <c r="H21" s="2">
         <v>5</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>217</v>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>0</v>
@@ -22429,11 +22604,11 @@
       <c r="F24" s="2">
         <v>5</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>0</v>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>0</v>
@@ -22497,9 +22672,7 @@
       <c r="F25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
         <v>0</v>
       </c>
@@ -22627,17 +22800,17 @@
       <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>0</v>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>0</v>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54205716-B4C4-4D1E-9014-A12CD4754B53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9728192C-BC65-4800-972C-E61AF78CAB3E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
@@ -63,6 +63,31 @@
           </rPr>
           <t xml:space="preserve">
 Не везде включён DHCP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{42170E4D-7C0A-4321-8F51-07CF5A744693}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не везде ключён DHCP
+</t>
         </r>
       </text>
     </comment>
@@ -139,6 +164,55 @@
           </rPr>
           <t xml:space="preserve">
 Неверен 1 IP, опечатка</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{11717212-D135-4B6F-91D2-7104932F4E66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I26" authorId="0" shapeId="0" xr:uid="{144D33E5-13F6-46DE-930F-ED63196DEABD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DHCP не включён
+Настроен только один VLAN</t>
         </r>
       </text>
     </comment>
@@ -337,6 +411,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{BDA84B97-3BBC-4D51-85BE-9C38D033D1BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не указан шлюз на серверах
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F27" authorId="0" shapeId="0" xr:uid="{503CB5C0-C787-4635-A6E8-6E1D256D4A32}">
       <text>
         <r>
@@ -385,12 +484,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{40F0F32A-6F43-489F-95AC-9D95A5C779C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Разные IP
+Не везде прописан шлюз</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="218">
   <si>
     <t/>
   </si>
@@ -1590,7 +1714,7 @@
   <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18059,7 +18183,9 @@
       <c r="H5" s="7">
         <v>43424</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>43431</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -18099,9 +18225,7 @@
       <c r="H6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
@@ -18235,8 +18359,8 @@
       <c r="H8" s="2">
         <v>4</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>0</v>
+      <c r="I8" s="2">
+        <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>0</v>
@@ -18507,8 +18631,8 @@
       <c r="H12" s="2">
         <v>5</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>0</v>
+      <c r="I12" s="2">
+        <v>5</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>0</v>
@@ -18572,11 +18696,11 @@
       <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>0</v>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>0</v>
@@ -18711,8 +18835,8 @@
       <c r="H15" s="2">
         <v>5</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>0</v>
+      <c r="I15" s="2">
+        <v>5</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>0</v>
@@ -18847,8 +18971,8 @@
       <c r="H17" s="2">
         <v>5</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>0</v>
+      <c r="I17" s="2">
+        <v>5</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>0</v>
@@ -18915,8 +19039,8 @@
       <c r="H18" s="2">
         <v>4</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>0</v>
+      <c r="I18" s="2">
+        <v>5</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>0</v>
@@ -18983,8 +19107,8 @@
       <c r="H19" s="2">
         <v>5</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>0</v>
+      <c r="I19" s="2">
+        <v>5</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>0</v>
@@ -19185,8 +19309,8 @@
       <c r="H22" s="2">
         <v>5</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>0</v>
+      <c r="I22" s="2">
+        <v>5</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>0</v>
@@ -19253,9 +19377,7 @@
       <c r="H23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
         <v>0</v>
       </c>
@@ -19321,8 +19443,8 @@
       <c r="H24" s="2">
         <v>5</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>0</v>
+      <c r="I24" s="2">
+        <v>5</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>0</v>
@@ -19389,8 +19511,8 @@
       <c r="H25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>0</v>
+      <c r="I25" s="2">
+        <v>5</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>0</v>
@@ -19448,17 +19570,17 @@
       <c r="E26" s="2">
         <v>5</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>0</v>
+      <c r="F26" s="2">
+        <v>5</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>0</v>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>0</v>
@@ -19562,7 +19684,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19628,7 +19750,9 @@
       <c r="H5" s="7">
         <v>43424</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>43431</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -19804,8 +19928,8 @@
       <c r="H8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>0</v>
+      <c r="I8" s="2">
+        <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>0</v>
@@ -19940,8 +20064,8 @@
       <c r="H10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>0</v>
+      <c r="I10" s="2">
+        <v>5</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>0</v>
@@ -20344,8 +20468,8 @@
       <c r="H16" s="2">
         <v>4</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>0</v>
+      <c r="I16" s="2">
+        <v>5</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>0</v>
@@ -20412,8 +20536,8 @@
       <c r="H17" s="2">
         <v>5</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>0</v>
+      <c r="I17" s="2">
+        <v>5</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>0</v>
@@ -20684,8 +20808,8 @@
       <c r="H21" s="2">
         <v>5</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>0</v>
+      <c r="I21" s="2">
+        <v>5</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>0</v>
@@ -20752,8 +20876,8 @@
       <c r="H22" s="2">
         <v>5</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>0</v>
+      <c r="I22" s="2">
+        <v>5</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>0</v>
@@ -20956,8 +21080,8 @@
       <c r="H25" s="2">
         <v>5</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>0</v>
+      <c r="I25" s="2">
+        <v>5</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>0</v>
@@ -21092,8 +21216,8 @@
       <c r="H27" s="2">
         <v>5</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>0</v>
+      <c r="I27" s="2">
+        <v>5</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>0</v>
@@ -21285,7 +21409,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21348,7 +21472,9 @@
       <c r="H5" s="7">
         <v>43424</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>43431</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -21524,8 +21650,8 @@
       <c r="H8" s="2">
         <v>4</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>0</v>
+      <c r="I8" s="2">
+        <v>5</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>0</v>
@@ -21861,11 +21987,11 @@
       <c r="G13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>0</v>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>0</v>
@@ -22000,8 +22126,8 @@
       <c r="H15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>0</v>
+      <c r="I15" s="2">
+        <v>5</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>0</v>
@@ -22413,7 +22539,7 @@
         <v>5</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>0</v>
@@ -22540,7 +22666,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>0</v>
@@ -22610,8 +22736,8 @@
       <c r="H24" s="2">
         <v>5</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>0</v>
+      <c r="I24" s="2">
+        <v>4</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>0</v>
@@ -22812,8 +22938,8 @@
       <c r="H27" s="2">
         <v>5</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>0</v>
+      <c r="I27" s="2">
+        <v>2</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>0</v>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9728192C-BC65-4800-972C-E61AF78CAB3E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234AD300-5D60-4CAB-B889-513DAD139C4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{BDA84B97-3BBC-4D51-85BE-9C38D033D1BD}">
+    <comment ref="H23" authorId="0" shapeId="0" xr:uid="{E5227188-CDE3-47B0-822C-25E0B2497FE4}">
       <text>
         <r>
           <rPr>
@@ -431,7 +431,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Не указан шлюз на серверах
+Лишние DHCP-сервера
 </t>
         </r>
       </text>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="218">
   <si>
     <t/>
   </si>
@@ -19684,7 +19684,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19925,8 +19925,8 @@
       <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>0</v>
+      <c r="H8" s="2">
+        <v>5</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
@@ -21148,8 +21148,8 @@
       <c r="H26" s="2">
         <v>5</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>0</v>
+      <c r="I26" s="2">
+        <v>5</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>0</v>
@@ -21409,7 +21409,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22665,8 +22665,8 @@
       <c r="G23" s="2">
         <v>5</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>216</v>
+      <c r="H23" s="2">
+        <v>4</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>0</v>
@@ -22737,7 +22737,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>0</v>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234AD300-5D60-4CAB-B889-513DAD139C4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF2C00-A28E-4771-A186-40A34FB6748B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
@@ -66,6 +66,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{2B865A52-591A-4BB6-8C58-0ADEC8100CD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Неверный шлюз на сервере</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H13" authorId="0" shapeId="0" xr:uid="{42170E4D-7C0A-4321-8F51-07CF5A744693}">
       <text>
         <r>
@@ -112,6 +138,32 @@
           </rPr>
           <t xml:space="preserve">
 Не везде включён DHCP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{5170F1A7-54C9-4261-A471-464D2E161C51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+На сервере не задан шлюз</t>
         </r>
       </text>
     </comment>
@@ -188,31 +240,6 @@
           </rPr>
           <t xml:space="preserve">
 Чужой IP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I26" authorId="0" shapeId="0" xr:uid="{144D33E5-13F6-46DE-930F-ED63196DEABD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>С.С. Уколов:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-DHCP не включён
-Настроен только один VLAN</t>
         </r>
       </text>
     </comment>
@@ -300,6 +327,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{BCD1BF3F-34FD-4518-80A4-2774A7F5B729}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Двойной маршрут на левом коммутаторе
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J26" authorId="0" shapeId="0" xr:uid="{A25E25AC-4026-4B41-B5B1-20048EE3E4EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Неверный шлюз на сервере
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E27" authorId="0" shapeId="0" xr:uid="{C1A1C5A4-1854-491D-ACF6-287CD1BBD2C2}">
       <text>
         <r>
@@ -324,6 +405,33 @@
           <t xml:space="preserve">
 1) Неверный IP (28)
 2) Плохо документировано
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{8B009F31-18C0-444A-92FA-EACECB44A304}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Не указан шлюз на серверах
 </t>
         </r>
       </text>
@@ -509,12 +617,146 @@
         </r>
       </text>
     </comment>
+    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{9953B6D6-8DCD-44B3-9B54-0EB400AFAC77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
+2 задания из 3
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{82FD9285-CDAA-4BD3-967B-9F6F5C8E24D1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{6A71D459-087A-42AC-9321-AD435A87B729}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
+Одинаковые VLAN в правой части
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{50ACA01A-CD9D-4EA2-9DA5-763B1A1E50F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
+Опечатка в маршрутизации
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K28" authorId="0" shapeId="0" xr:uid="{FD5C4FC2-B003-4153-8B5B-7B0722FDAC8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
+Не везде включён DHCP</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="226">
   <si>
     <t/>
   </si>
@@ -1249,12 +1491,36 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>conf t</t>
+  </si>
+  <si>
+    <t>telnet</t>
+  </si>
+  <si>
+    <t>router</t>
+  </si>
+  <si>
+    <t>L3 switch</t>
+  </si>
+  <si>
+    <t>vlan</t>
+  </si>
+  <si>
+    <t>ocsp</t>
+  </si>
+  <si>
+    <t>wi-fi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1331,6 +1597,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1367,7 +1642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1393,6 +1668,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="180" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1713,8 +1994,8 @@
   </sheetPr>
   <dimension ref="A1:XFD43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18186,7 +18467,9 @@
       <c r="I5" s="7">
         <v>43431</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7">
+        <v>43438</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -18362,8 +18645,8 @@
       <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>0</v>
+      <c r="J8" s="2">
+        <v>4</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>0</v>
@@ -18634,8 +18917,8 @@
       <c r="I12" s="2">
         <v>5</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>0</v>
+      <c r="J12" s="2">
+        <v>5</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>0</v>
@@ -18702,8 +18985,8 @@
       <c r="I13" s="2">
         <v>5</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>0</v>
+      <c r="J13" s="2">
+        <v>5</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>0</v>
@@ -18770,9 +19053,7 @@
       <c r="I14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
         <v>0</v>
       </c>
@@ -18974,8 +19255,8 @@
       <c r="I17" s="2">
         <v>5</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>0</v>
+      <c r="J17" s="2">
+        <v>5</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>0</v>
@@ -19042,8 +19323,8 @@
       <c r="I18" s="2">
         <v>5</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>0</v>
+      <c r="J18" s="2">
+        <v>5</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>0</v>
@@ -19110,8 +19391,8 @@
       <c r="I19" s="2">
         <v>5</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>0</v>
+      <c r="J19" s="2">
+        <v>4</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>0</v>
@@ -19244,8 +19525,8 @@
       <c r="I21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>0</v>
+      <c r="J21" s="2">
+        <v>5</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>0</v>
@@ -19312,8 +19593,8 @@
       <c r="I22" s="2">
         <v>5</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>0</v>
+      <c r="J22" s="2">
+        <v>5</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>0</v>
@@ -19378,8 +19659,8 @@
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>0</v>
+      <c r="J23" s="2">
+        <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>0</v>
@@ -19446,8 +19727,8 @@
       <c r="I24" s="2">
         <v>5</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>0</v>
+      <c r="J24" s="2">
+        <v>5</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>0</v>
@@ -19580,10 +19861,10 @@
         <v>2</v>
       </c>
       <c r="I26" s="2">
-        <v>2</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>0</v>
@@ -19624,14 +19905,30 @@
     </row>
     <row r="27" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>2</v>
+      </c>
+      <c r="G27" s="10">
+        <v>3</v>
+      </c>
+      <c r="H27" s="10">
+        <v>4</v>
+      </c>
+      <c r="I27" s="10">
+        <v>5</v>
+      </c>
+      <c r="J27" s="10">
+        <v>6</v>
+      </c>
+      <c r="K27" s="10">
+        <v>7</v>
+      </c>
+      <c r="L27" s="10">
+        <v>8</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -19642,16 +19939,32 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="54.75" x14ac:dyDescent="0.25">
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="E28" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>225</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -19684,7 +19997,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19753,7 +20066,9 @@
       <c r="I5" s="7">
         <v>43431</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7">
+        <v>43438</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -19863,8 +20178,8 @@
       <c r="I7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>0</v>
+      <c r="J7" s="2">
+        <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>0</v>
@@ -19931,8 +20246,8 @@
       <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>0</v>
+      <c r="J8" s="2">
+        <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>0</v>
@@ -20339,8 +20654,8 @@
       <c r="I14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>0</v>
+      <c r="J14" s="2">
+        <v>5</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>0</v>
@@ -20471,8 +20786,8 @@
       <c r="I16" s="2">
         <v>5</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>0</v>
+      <c r="J16" s="2">
+        <v>5</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>0</v>
@@ -20539,8 +20854,8 @@
       <c r="I17" s="2">
         <v>5</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>0</v>
+      <c r="J17" s="2">
+        <v>4</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>0</v>
@@ -20811,8 +21126,8 @@
       <c r="I21" s="2">
         <v>5</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>0</v>
+      <c r="J21" s="2">
+        <v>5</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>0</v>
@@ -20879,8 +21194,8 @@
       <c r="I22" s="2">
         <v>5</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>0</v>
+      <c r="J22" s="2">
+        <v>5</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>0</v>
@@ -21083,8 +21398,8 @@
       <c r="I25" s="2">
         <v>5</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>0</v>
+      <c r="J25" s="2">
+        <v>5</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>0</v>
@@ -21151,8 +21466,8 @@
       <c r="I26" s="2">
         <v>5</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>0</v>
+      <c r="J26" s="2">
+        <v>4</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>0</v>
@@ -21219,8 +21534,8 @@
       <c r="I27" s="2">
         <v>5</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>0</v>
+      <c r="J27" s="2">
+        <v>4</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>0</v>
@@ -21385,6 +21700,58 @@
       </c>
       <c r="V29" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <v>2</v>
+      </c>
+      <c r="G30" s="10">
+        <v>3</v>
+      </c>
+      <c r="H30" s="10">
+        <v>4</v>
+      </c>
+      <c r="I30" s="10">
+        <v>5</v>
+      </c>
+      <c r="J30" s="10">
+        <v>6</v>
+      </c>
+      <c r="K30" s="10">
+        <v>7</v>
+      </c>
+      <c r="L30" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="54.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="14:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21409,7 +21776,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21475,7 +21842,9 @@
       <c r="I5" s="7">
         <v>43431</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7">
+        <v>43438</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -21653,8 +22022,8 @@
       <c r="I8" s="2">
         <v>5</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>0</v>
+      <c r="J8" s="2">
+        <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>0</v>
@@ -22668,8 +23037,8 @@
       <c r="H23" s="2">
         <v>4</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>0</v>
+      <c r="I23" s="2">
+        <v>5</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>0</v>
@@ -22994,26 +23363,26 @@
       <c r="D28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>0</v>
+      <c r="E28" s="2">
+        <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="K28" s="2">
+        <v>4</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>0</v>
@@ -23047,6 +23416,58 @@
       </c>
       <c r="V28" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>2</v>
+      </c>
+      <c r="G29" s="10">
+        <v>3</v>
+      </c>
+      <c r="H29" s="10">
+        <v>4</v>
+      </c>
+      <c r="I29" s="10">
+        <v>5</v>
+      </c>
+      <c r="J29" s="10">
+        <v>6</v>
+      </c>
+      <c r="K29" s="10">
+        <v>7</v>
+      </c>
+      <c r="L29" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="54.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="14:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDF2C00-A28E-4771-A186-40A34FB6748B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A5A8AC-96CA-4288-9F26-8441548217DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="1" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
   <sheets>
     <sheet name="273929" sheetId="2" r:id="rId1"/>
@@ -324,33 +324,6 @@
           </rPr>
           <t xml:space="preserve">
 Не везде включён DHCP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{BCD1BF3F-34FD-4518-80A4-2774A7F5B729}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>С.С. Уколов:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-Двойной маршрут на левом коммутаторе
-</t>
         </r>
       </text>
     </comment>
@@ -756,7 +729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="226">
   <si>
     <t/>
   </si>
@@ -1663,17 +1636,17 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="180" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="180" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18400,24 +18373,24 @@
       <c r="XFD1" s="5"/>
     </row>
     <row r="2" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:16384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="6"/>
@@ -19905,28 +19878,28 @@
     </row>
     <row r="27" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D27" s="4"/>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>1</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <v>2</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>3</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="8">
         <v>4</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <v>5</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="8">
         <v>6</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="8">
         <v>7</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="8">
         <v>8</v>
       </c>
       <c r="M27" s="4"/>
@@ -19941,28 +19914,28 @@
     </row>
     <row r="28" spans="1:22" ht="54.75" x14ac:dyDescent="0.25">
       <c r="D28" s="4"/>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="9" t="s">
         <v>225</v>
       </c>
       <c r="M28" s="4"/>
@@ -19996,8 +19969,8 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20018,24 +19991,24 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:22" ht="36" x14ac:dyDescent="0.25">
@@ -20651,8 +20624,8 @@
       <c r="H14" s="2">
         <v>5</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>0</v>
+      <c r="I14" s="2">
+        <v>5</v>
       </c>
       <c r="J14" s="2">
         <v>5</v>
@@ -20855,7 +20828,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>0</v>
@@ -21703,54 +21676,54 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="10">
+      <c r="E30" s="8">
         <v>1</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <v>2</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="8">
         <v>3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="8">
         <v>4</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="8">
         <v>5</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="8">
         <v>6</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="8">
         <v>7</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="54.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="I31" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="9" t="s">
         <v>225</v>
       </c>
     </row>
@@ -21775,8 +21748,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21796,24 +21769,24 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:22" ht="36" x14ac:dyDescent="0.25">
@@ -23419,54 +23392,54 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <v>1</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="8">
         <v>2</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="8">
         <v>3</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="8">
         <v>4</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="8">
         <v>5</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="8">
         <v>6</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="8">
         <v>7</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="54.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="9" t="s">
         <v>225</v>
       </c>
     </row>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A5A8AC-96CA-4288-9F26-8441548217DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB2446C-2C64-4182-B5CA-55CA986DC5E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="1" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
@@ -89,6 +89,82 @@
           </rPr>
           <t xml:space="preserve">
 Неверный шлюз на сервере</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{579E65D6-3ED6-426B-936B-D6ABDDDA5178}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Неверный шлюз в средней сети
+Не включён DHCP на 1 машине
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{D94D48B2-12A8-46F8-B959-0E6B49D413F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DHCP настроен не правильно
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K11" authorId="0" shapeId="0" xr:uid="{1203290A-15C7-44A3-AD37-A1E5D30E81C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Одинаковый router-id
+</t>
         </r>
       </text>
     </comment>
@@ -253,6 +329,31 @@
     <author>С.С. Уколов</author>
   </authors>
   <commentList>
+    <comment ref="K7" authorId="0" shapeId="0" xr:uid="{95598E74-3CF2-4CEE-B296-03695DC5D2D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Опечатки в настройке IP правой подсети
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E8" authorId="0" shapeId="0" xr:uid="{F8D4EFFC-B078-4504-B1E4-DC66729E414D}">
       <text>
         <r>
@@ -300,6 +401,31 @@
           </rPr>
           <t xml:space="preserve">
 Глупо чужой IP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{0FA34685-E1CC-4AF1-83E5-F806BEF9537D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не включён OSPF на портах правого маршрутизатора
+</t>
         </r>
       </text>
     </comment>
@@ -468,6 +594,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{A5DA5D4C-F236-4E2D-B8D9-AC258C4E120F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Маршрутизатор совсем не настроен
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E23" authorId="0" shapeId="0" xr:uid="{EDE0AB72-0393-43FB-B884-B38D58C2EC24}">
       <text>
         <r>
@@ -517,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{503CB5C0-C787-4635-A6E8-6E1D256D4A32}">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{7A7FBE6E-DA8A-454E-8665-824D31AA9FB5}">
       <text>
         <r>
           <rPr>
@@ -537,11 +688,37 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Чужой IP</t>
+Опечатки в IP в правой подсети
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="G27" authorId="0" shapeId="0" xr:uid="{E6B374B0-D564-4684-AD8A-A839CF12FB49}">
+    <comment ref="K24" authorId="0" shapeId="0" xr:uid="{D4E636B1-C818-4EED-8ACA-B620F5B91088}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DHCP настроен на Windows, не на Cisco
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{503CB5C0-C787-4635-A6E8-6E1D256D4A32}">
       <text>
         <r>
           <rPr>
@@ -729,7 +906,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="226">
   <si>
     <t/>
   </si>
@@ -1967,8 +2144,8 @@
   </sheetPr>
   <dimension ref="A1:XFD43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18443,7 +18620,9 @@
       <c r="J5" s="7">
         <v>43438</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7">
+        <v>43445</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -18621,8 +18800,8 @@
       <c r="J8" s="2">
         <v>4</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>0</v>
+      <c r="K8" s="2">
+        <v>3</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>0</v>
@@ -18807,26 +18986,23 @@
       <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>0</v>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>0</v>
@@ -18961,8 +19137,8 @@
       <c r="J13" s="2">
         <v>5</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>0</v>
+      <c r="K13" s="2">
+        <v>5</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>0</v>
@@ -19092,11 +19268,11 @@
       <c r="I15" s="2">
         <v>5</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>0</v>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>0</v>
@@ -19163,9 +19339,7 @@
       <c r="J16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
         <v>0</v>
       </c>
@@ -19231,8 +19405,8 @@
       <c r="J17" s="2">
         <v>5</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>0</v>
+      <c r="K17" s="2">
+        <v>5</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>0</v>
@@ -19299,8 +19473,8 @@
       <c r="J18" s="2">
         <v>5</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>0</v>
+      <c r="K18" s="2">
+        <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>0</v>
@@ -19367,8 +19541,8 @@
       <c r="J19" s="2">
         <v>4</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>0</v>
+      <c r="K19" s="2">
+        <v>5</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>0</v>
@@ -19635,8 +19809,8 @@
       <c r="J23" s="2">
         <v>5</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>0</v>
+      <c r="K23" s="2">
+        <v>5</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>0</v>
@@ -19703,8 +19877,8 @@
       <c r="J24" s="2">
         <v>5</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>0</v>
+      <c r="K24" s="2">
+        <v>5</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>0</v>
@@ -19970,7 +20144,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20042,7 +20216,9 @@
       <c r="J5" s="7">
         <v>43438</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7">
+        <v>43445</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -20086,8 +20262,8 @@
       <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>0</v>
+      <c r="K6" s="2">
+        <v>7</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>0</v>
@@ -20154,8 +20330,8 @@
       <c r="J7" s="2">
         <v>5</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>0</v>
+      <c r="K7" s="2">
+        <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>0</v>
@@ -20210,8 +20386,8 @@
       <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>0</v>
+      <c r="G8" s="2">
+        <v>5</v>
       </c>
       <c r="H8" s="2">
         <v>5</v>
@@ -20222,8 +20398,8 @@
       <c r="J8" s="2">
         <v>5</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>0</v>
+      <c r="K8" s="2">
+        <v>3</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>0</v>
@@ -20630,8 +20806,8 @@
       <c r="J14" s="2">
         <v>5</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>0</v>
+      <c r="K14" s="2">
+        <v>5</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>0</v>
@@ -20830,8 +21006,8 @@
       <c r="J17" s="2">
         <v>5</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>0</v>
+      <c r="K17" s="2">
+        <v>5</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>0</v>
@@ -20898,8 +21074,8 @@
       <c r="J18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>0</v>
+      <c r="K18" s="2">
+        <v>5</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>0</v>
@@ -21103,7 +21279,7 @@
         <v>5</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>0</v>
@@ -21170,8 +21346,8 @@
       <c r="J22" s="2">
         <v>5</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>0</v>
+      <c r="K22" s="2">
+        <v>5</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>0</v>
@@ -21374,8 +21550,8 @@
       <c r="J25" s="2">
         <v>5</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>0</v>
+      <c r="K25" s="2">
+        <v>5</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>0</v>
@@ -21510,8 +21686,8 @@
       <c r="J27" s="2">
         <v>4</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>0</v>
+      <c r="K27" s="2">
+        <v>5</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>0</v>
@@ -21749,7 +21925,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21818,7 +21994,9 @@
       <c r="J5" s="7">
         <v>43438</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7">
+        <v>43445</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -21998,8 +22176,8 @@
       <c r="J8" s="2">
         <v>5</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>0</v>
+      <c r="K8" s="2">
+        <v>5</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>0</v>
@@ -22335,11 +22513,11 @@
       <c r="I13" s="2">
         <v>5</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>0</v>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>0</v>
@@ -22474,8 +22652,8 @@
       <c r="J15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>0</v>
+      <c r="K15" s="2">
+        <v>5</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>0</v>
@@ -22930,26 +23108,26 @@
       <c r="D22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>0</v>
+      <c r="E22" s="2">
+        <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>5</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>0</v>
@@ -23013,8 +23191,8 @@
       <c r="I23" s="2">
         <v>5</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>0</v>
+      <c r="J23" s="2">
+        <v>3</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>0</v>
@@ -23081,11 +23259,11 @@
       <c r="I24" s="2">
         <v>5</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>0</v>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>4</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>0</v>
@@ -23274,8 +23452,8 @@
       <c r="F27" s="2">
         <v>4</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>217</v>
+      <c r="G27" s="2">
+        <v>5</v>
       </c>
       <c r="H27" s="2">
         <v>5</v>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB2446C-2C64-4182-B5CA-55CA986DC5E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B16EDA-7FE9-453E-B1D1-A342EAB2E2A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="1" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
   <sheets>
     <sheet name="273929" sheetId="2" r:id="rId1"/>
@@ -193,6 +193,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{62B3CAA2-4D8A-4198-ADBB-BB922426CE30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не точный DHCP-диапазон</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H18" authorId="0" shapeId="0" xr:uid="{33CA32B4-2DF6-47FA-BDA5-9E2B2DD9465A}">
       <text>
         <r>
@@ -266,6 +290,30 @@
 Повторный IP
 Неаккуратный развод портов
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{1E2BB326-5010-4AAF-B3BA-2D2C3AC8018C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не включен DHCP на рабочей станции</t>
         </r>
       </text>
     </comment>
@@ -429,6 +477,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{C78F6AD1-56BC-4A73-BD06-A744CB9648C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Сервер - не шлюз в своей сети</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H16" authorId="0" shapeId="0" xr:uid="{85894330-6C80-457B-9BD8-66AF7D67C7F1}">
       <text>
         <r>
@@ -450,6 +522,78 @@
           </rPr>
           <t xml:space="preserve">
 Не везде включён DHCP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{DAD6ED5C-DB19-4104-AF71-FB77F44C2962}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Опечатки в таблицах маршрутизации</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{8F0356E2-22A0-4845-9EA9-B657D82A4091}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не точный DHCP-диапазон</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{6210B813-8E7B-47FE-A563-5359F9DCA912}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Сервер не шлюз в своей сети</t>
         </r>
       </text>
     </comment>
@@ -532,6 +676,30 @@
           <t xml:space="preserve">
 Не указан шлюз на серверах
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L27" authorId="0" shapeId="0" xr:uid="{418A48CB-6C94-4FD0-9F21-B495C3245637}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Неточный DHCP-диапазон</t>
         </r>
       </text>
     </comment>
@@ -693,7 +861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K24" authorId="0" shapeId="0" xr:uid="{D4E636B1-C818-4EED-8ACA-B620F5B91088}">
+    <comment ref="L24" authorId="0" shapeId="0" xr:uid="{CFA14648-BCC3-43B3-BA4E-6F4E13F5F4D0}">
       <text>
         <r>
           <rPr>
@@ -713,8 +881,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-DHCP настроен на Windows, не на Cisco
-</t>
+DHCP раздаёт не свои IP</t>
         </r>
       </text>
     </comment>
@@ -906,7 +1073,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="226">
   <si>
     <t/>
   </si>
@@ -2145,7 +2312,7 @@
   <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="J1" sqref="J1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18623,7 +18790,9 @@
       <c r="K5" s="7">
         <v>43445</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>43452</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -18729,14 +18898,12 @@
       <c r="I7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>0</v>
@@ -18803,8 +18970,8 @@
       <c r="K8" s="2">
         <v>3</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>0</v>
+      <c r="L8" s="2">
+        <v>5</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>0</v>
@@ -19004,8 +19171,8 @@
       <c r="K11" s="2">
         <v>3</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>0</v>
+      <c r="L11" s="2">
+        <v>5</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>0</v>
@@ -19072,8 +19239,8 @@
       <c r="K12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>0</v>
+      <c r="L12" s="2">
+        <v>5</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>0</v>
@@ -19140,8 +19307,8 @@
       <c r="K13" s="2">
         <v>5</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>0</v>
+      <c r="L13" s="2">
+        <v>4</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>0</v>
@@ -19274,8 +19441,8 @@
       <c r="K15" s="2">
         <v>5</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>0</v>
+      <c r="L15" s="2">
+        <v>5</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>0</v>
@@ -19408,8 +19575,8 @@
       <c r="K17" s="2">
         <v>5</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>0</v>
+      <c r="L17" s="2">
+        <v>5</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>0</v>
@@ -19476,8 +19643,8 @@
       <c r="K18" s="2">
         <v>5</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>0</v>
+      <c r="L18" s="2">
+        <v>5</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>0</v>
@@ -19544,8 +19711,8 @@
       <c r="K19" s="2">
         <v>5</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>0</v>
+      <c r="L19" s="2">
+        <v>5</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>0</v>
@@ -19678,8 +19845,8 @@
       <c r="K21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>0</v>
+      <c r="L21" s="2">
+        <v>4</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>0</v>
@@ -19812,8 +19979,8 @@
       <c r="K23" s="2">
         <v>5</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>0</v>
+      <c r="L23" s="2">
+        <v>5</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>0</v>
@@ -19880,8 +20047,8 @@
       <c r="K24" s="2">
         <v>5</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>0</v>
+      <c r="L24" s="2">
+        <v>5</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>0</v>
@@ -20013,11 +20180,11 @@
       <c r="J26" s="2">
         <v>5</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>0</v>
+      <c r="K26" s="2">
+        <v>5</v>
+      </c>
+      <c r="L26" s="2">
+        <v>5</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>0</v>
@@ -20143,8 +20310,8 @@
   </sheetPr>
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J4" sqref="J1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20219,7 +20386,9 @@
       <c r="K5" s="7">
         <v>43445</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>43452</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -20247,8 +20416,8 @@
       <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>0</v>
+      <c r="F6" s="2">
+        <v>3</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
@@ -20263,10 +20432,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>7</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>0</v>
@@ -20401,8 +20570,8 @@
       <c r="K8" s="2">
         <v>3</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>0</v>
+      <c r="L8" s="2">
+        <v>5</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>0</v>
@@ -20469,9 +20638,7 @@
       <c r="K9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
         <v>0</v>
       </c>
@@ -20537,8 +20704,8 @@
       <c r="K10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>0</v>
+      <c r="L10" s="2">
+        <v>4</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>0</v>
@@ -20941,8 +21108,8 @@
       <c r="K16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>0</v>
+      <c r="L16" s="2">
+        <v>5</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>0</v>
@@ -21009,8 +21176,8 @@
       <c r="K17" s="2">
         <v>5</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>0</v>
+      <c r="L17" s="2">
+        <v>5</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>0</v>
@@ -21068,17 +21235,17 @@
       <c r="H18" s="2">
         <v>5</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>0</v>
+      <c r="I18" s="2">
+        <v>5</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="K18" s="2">
         <v>5</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>0</v>
+      <c r="L18" s="2">
+        <v>5</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>0</v>
@@ -21278,11 +21445,11 @@
       <c r="J21" s="2">
         <v>5</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>0</v>
+      <c r="K21" s="2">
+        <v>5</v>
+      </c>
+      <c r="L21" s="2">
+        <v>4</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>0</v>
@@ -21349,8 +21516,8 @@
       <c r="K22" s="2">
         <v>5</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>0</v>
+      <c r="L22" s="2">
+        <v>4</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>0</v>
@@ -21553,8 +21720,8 @@
       <c r="K25" s="2">
         <v>5</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>0</v>
+      <c r="L25" s="2">
+        <v>5</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>0</v>
@@ -21621,8 +21788,8 @@
       <c r="K26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>0</v>
+      <c r="L26" s="2">
+        <v>5</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>0</v>
@@ -21689,8 +21856,8 @@
       <c r="K27" s="2">
         <v>5</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>0</v>
+      <c r="L27" s="2">
+        <v>4</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>0</v>
@@ -21817,8 +21984,8 @@
       <c r="K29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>0</v>
+      <c r="L29" s="2">
+        <v>5</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>0</v>
@@ -21924,8 +22091,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21997,7 +22164,9 @@
       <c r="K5" s="7">
         <v>43445</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>43452</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -22179,8 +22348,8 @@
       <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>0</v>
+      <c r="L8" s="2">
+        <v>5</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>0</v>
@@ -23263,10 +23432,10 @@
         <v>5</v>
       </c>
       <c r="K24" s="2">
+        <v>5</v>
+      </c>
+      <c r="L24" s="2">
         <v>4</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>0</v>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B16EDA-7FE9-453E-B1D1-A342EAB2E2A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653B7912-3A87-4D3D-83C2-617DB7750D28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
@@ -861,30 +861,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="L24" authorId="0" shapeId="0" xr:uid="{CFA14648-BCC3-43B3-BA4E-6F4E13F5F4D0}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>С.С. Уколов:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-DHCP раздаёт не свои IP</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F27" authorId="0" shapeId="0" xr:uid="{503CB5C0-C787-4635-A6E8-6E1D256D4A32}">
       <text>
         <r>
@@ -1073,7 +1049,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="226">
   <si>
     <t/>
   </si>
@@ -20311,7 +20287,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J1:L1048576"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22092,7 +22068,7 @@
   <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23230,8 +23206,8 @@
       <c r="K21" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>0</v>
+      <c r="L21" s="2">
+        <v>5</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>0</v>
@@ -23298,8 +23274,8 @@
       <c r="K22" s="2">
         <v>5</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>0</v>
+      <c r="L22" s="2">
+        <v>5</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>0</v>
@@ -23435,7 +23411,7 @@
         <v>5</v>
       </c>
       <c r="L24" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>0</v>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653B7912-3A87-4D3D-83C2-617DB7750D28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2CE44C-8654-4EAA-8867-7A0DFCA2316F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
@@ -377,6 +377,31 @@
     <author>С.С. Уколов</author>
   </authors>
   <commentList>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{A1A111B3-768E-46BA-B031-F032E57EA974}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+VLAN всё таки чужие ;-)
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K7" authorId="0" shapeId="0" xr:uid="{95598E74-3CF2-4CEE-B296-03695DC5D2D9}">
       <text>
         <r>
@@ -477,6 +502,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{4A0214D1-2C48-452C-876E-C21D129FD770}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L10" authorId="0" shapeId="0" xr:uid="{C78F6AD1-56BC-4A73-BD06-A744CB9648C5}">
       <text>
         <r>
@@ -522,54 +572,6 @@
           </rPr>
           <t xml:space="preserve">
 Не везде включён DHCP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{DAD6ED5C-DB19-4104-AF71-FB77F44C2962}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>С.С. Уколов:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Опечатки в таблицах маршрутизации</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{8F0356E2-22A0-4845-9EA9-B657D82A4091}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>С.С. Уколов:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Не точный DHCP-диапазон</t>
         </r>
       </text>
     </comment>
@@ -784,30 +786,6 @@
           <t xml:space="preserve">
 Маршрутизатор совсем не настроен
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{EDE0AB72-0393-43FB-B884-B38D58C2EC24}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>С.С. Уколов:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Чужие и разные (!) IP-адреса</t>
         </r>
       </text>
     </comment>
@@ -1049,7 +1027,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="226">
   <si>
     <t/>
   </si>
@@ -2288,7 +2266,7 @@
   <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1048576"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20287,7 +20265,7 @@
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20398,8 +20376,8 @@
       <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>0</v>
+      <c r="H6" s="2">
+        <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>0</v>
@@ -20666,7 +20644,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>0</v>
@@ -20728,17 +20706,15 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>0</v>
       </c>
@@ -20748,8 +20724,8 @@
       <c r="K11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>0</v>
+      <c r="L11" s="2">
+        <v>5</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>0</v>
@@ -21214,8 +21190,8 @@
       <c r="I18" s="2">
         <v>5</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>216</v>
+      <c r="J18" s="2">
+        <v>5</v>
       </c>
       <c r="K18" s="2">
         <v>5</v>
@@ -21425,7 +21401,7 @@
         <v>5</v>
       </c>
       <c r="L21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>0</v>
@@ -22067,8 +22043,8 @@
   </sheetPr>
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23322,7 +23298,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F23" s="2">
         <v>5</v>
@@ -23342,8 +23318,8 @@
       <c r="K23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>0</v>
+      <c r="L23" s="2">
+        <v>5</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>0</v>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2CE44C-8654-4EAA-8867-7A0DFCA2316F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD6A633-AA08-4CA4-A7E7-4342130D3CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" activeTab="2" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
   <sheets>
     <sheet name="273929" sheetId="2" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="227">
   <si>
     <t/>
   </si>
@@ -1786,6 +1786,9 @@
   <si>
     <t>wi-fi</t>
   </si>
+  <si>
+    <t>!</t>
+  </si>
 </sst>
 </file>
 
@@ -2265,8 +2268,8 @@
   </sheetPr>
   <dimension ref="A1:XFD43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19428,6 +19431,9 @@
       <c r="V15" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="W15" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="16" spans="1:16384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -19495,7 +19501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -19562,8 +19568,11 @@
       <c r="V17" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="W17" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -19631,7 +19640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -19699,7 +19708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -19765,7 +19774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -19833,7 +19842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -19901,7 +19910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -19967,7 +19976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -20034,8 +20043,11 @@
       <c r="V24" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -20103,7 +20115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -20171,7 +20183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D27" s="4"/>
       <c r="E27" s="8">
         <v>1</v>
@@ -20207,7 +20219,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:22" ht="54.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="54.75" x14ac:dyDescent="0.25">
       <c r="D28" s="4"/>
       <c r="E28" s="9" t="s">
         <v>218</v>
@@ -20262,10 +20274,10 @@
   <sheetPr codeName="Лист2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20774,9 +20786,7 @@
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
         <v>0</v>
       </c>
@@ -21094,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>74</v>
       </c>
@@ -21161,8 +21171,11 @@
       <c r="V17" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="W17" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
@@ -21229,8 +21242,11 @@
       <c r="V18" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="W18" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>70</v>
       </c>
@@ -21298,7 +21314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -21366,7 +21382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
@@ -21433,8 +21449,11 @@
       <c r="V21" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="W21" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -21502,7 +21521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
@@ -21570,7 +21589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -21638,7 +21657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
@@ -21705,8 +21724,11 @@
       <c r="V25" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="W25" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -21774,7 +21796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -21842,7 +21864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -21910,7 +21932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -21970,7 +21992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E30" s="8">
         <v>1</v>
       </c>
@@ -21996,7 +22018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="54.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="54.75" x14ac:dyDescent="0.25">
       <c r="E31" s="9" t="s">
         <v>218</v>
       </c>
@@ -22041,10 +22063,10 @@
   <sheetPr codeName="Лист3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22058,12 +22080,12 @@
     <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>145</v>
       </c>
@@ -22073,7 +22095,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
@@ -22083,8 +22105,8 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:22" ht="36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:23" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -22130,7 +22152,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
     </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>143</v>
       </c>
@@ -22198,7 +22220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>141</v>
       </c>
@@ -22266,7 +22288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>139</v>
       </c>
@@ -22333,8 +22355,11 @@
       <c r="V8" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="W8" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>137</v>
       </c>
@@ -22402,7 +22427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>135</v>
       </c>
@@ -22470,7 +22495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>133</v>
       </c>
@@ -22538,7 +22563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>131</v>
       </c>
@@ -22606,7 +22631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>129</v>
       </c>
@@ -22674,7 +22699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>127</v>
       </c>
@@ -22742,7 +22767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>125</v>
       </c>
@@ -22810,7 +22835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>123</v>
       </c>
@@ -22878,7 +22903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>121</v>
       </c>
@@ -22946,7 +22971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>119</v>
       </c>
@@ -23014,7 +23039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>117</v>
       </c>
@@ -23082,7 +23107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>115</v>
       </c>
@@ -23148,7 +23173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>113</v>
       </c>
@@ -23216,7 +23241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>111</v>
       </c>
@@ -23284,7 +23309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>109</v>
       </c>
@@ -23352,7 +23377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>107</v>
       </c>
@@ -23419,8 +23444,11 @@
       <c r="V24" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>105</v>
       </c>
@@ -23486,7 +23514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>103</v>
       </c>
@@ -23554,7 +23582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>101</v>
       </c>
@@ -23622,7 +23650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
@@ -23690,7 +23718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E29" s="8">
         <v>1</v>
       </c>
@@ -23716,7 +23744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="54.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="54.75" x14ac:dyDescent="0.25">
       <c r="E30" s="9" t="s">
         <v>218</v>
       </c>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD6A633-AA08-4CA4-A7E7-4342130D3CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF977DA8-C348-4851-9DA5-CC57E7D8B702}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
@@ -314,6 +314,56 @@
           </rPr>
           <t xml:space="preserve">
 Не включен DHCP на рабочей станции</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{96AC883F-8023-4459-A990-52E5CB28E07B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{41AD757A-48FE-4CDA-AB2C-7F625C636398}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>С.С. Уколов:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
+</t>
         </r>
       </text>
     </comment>
@@ -2269,7 +2319,7 @@
   <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19110,6 +19160,9 @@
       <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
       <c r="F11" s="2">
         <v>3</v>
       </c>
@@ -19874,10 +19927,10 @@
         <v>5</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>0</v>

--- a/register/2018.xlsx
+++ b/register/2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF977DA8-C348-4851-9DA5-CC57E7D8B702}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A29BC0-4F55-4259-9069-727CA82FECEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{0773F02F-154F-49AB-B554-199499201140}"/>
   </bookViews>
@@ -214,30 +214,6 @@
           </rPr>
           <t xml:space="preserve">
 Не точный DHCP-диапазон</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H18" authorId="0" shapeId="0" xr:uid="{33CA32B4-2DF6-47FA-BDA5-9E2B2DD9465A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>С.С. Уколов:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Не везде включён DHCP</t>
         </r>
       </text>
     </comment>
@@ -2318,8 +2294,8 @@
   </sheetPr>
   <dimension ref="A1:XFD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19648,7 +19624,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I18" s="2">
         <v>5</v>
